--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.88827179925418</v>
+        <v>68.19413217203858</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.04986968962132</v>
+        <v>93.30622015052883</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.31879440697755</v>
+        <v>84.40120545548764</v>
       </c>
       <c r="AD2" t="n">
-        <v>43888.27179925418</v>
+        <v>68194.13217203857</v>
       </c>
       <c r="AE2" t="n">
-        <v>60049.86968962132</v>
+        <v>93306.22015052882</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157072866086672e-06</v>
+        <v>9.541934998349588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.94921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>54318.79440697755</v>
+        <v>84401.20545548764</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.93998112058103</v>
+        <v>68.24584149336543</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.12062066431495</v>
+        <v>93.37697112522245</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.38279300794605</v>
+        <v>84.46520405645614</v>
       </c>
       <c r="AD3" t="n">
-        <v>43939.98112058103</v>
+        <v>68245.84149336543</v>
       </c>
       <c r="AE3" t="n">
-        <v>60120.62066431495</v>
+        <v>93376.97112522245</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.152007758763684e-06</v>
+        <v>9.532563223683878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.94921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>54382.79300794605</v>
+        <v>84465.20405645615</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.12241228828861</v>
+        <v>65.56449569915461</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.63374280233165</v>
+        <v>89.7082355169573</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.13325927885763</v>
+        <v>81.14660742553988</v>
       </c>
       <c r="AD2" t="n">
-        <v>42122.41228828861</v>
+        <v>65564.49569915461</v>
       </c>
       <c r="AE2" t="n">
-        <v>57633.74280233165</v>
+        <v>89708.2355169573</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.466783567475424e-06</v>
+        <v>1.04205331814289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.877604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>52133.25927885763</v>
+        <v>81146.60742553989</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.65529472834052</v>
+        <v>58.49683885615316</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.52163548152238</v>
+        <v>80.03795562135359</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.60448290233172</v>
+        <v>72.39924547084645</v>
       </c>
       <c r="AD2" t="n">
-        <v>37655.29472834052</v>
+        <v>58496.83885615316</v>
       </c>
       <c r="AE2" t="n">
-        <v>51521.63548152238</v>
+        <v>80037.95562135358</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.002354529052176e-06</v>
+        <v>1.278344431308836e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.923177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>46604.48290233171</v>
+        <v>72399.24547084645</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.22469618774797</v>
+        <v>61.08294742557975</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.66895979537912</v>
+        <v>83.57638345709921</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.54686959746898</v>
+        <v>75.59997072016431</v>
       </c>
       <c r="AD2" t="n">
-        <v>39224.69618774797</v>
+        <v>61082.94742557975</v>
       </c>
       <c r="AE2" t="n">
-        <v>53668.95979537912</v>
+        <v>83576.38345709922</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.905993856726895e-06</v>
+        <v>1.199120941822895e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>48546.86959746898</v>
+        <v>75599.9707201643</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.69156909671014</v>
+        <v>56.73814690225453</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.88546472474704</v>
+        <v>77.63163570201759</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.78832563524351</v>
+        <v>70.22258134731989</v>
       </c>
       <c r="AD2" t="n">
-        <v>46691.56909671014</v>
+        <v>56738.14690225454</v>
       </c>
       <c r="AE2" t="n">
-        <v>63885.46472474703</v>
+        <v>77631.63570201759</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.905423416010766e-06</v>
+        <v>1.315022447628995e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>57788.32563524351</v>
+        <v>70222.58134731989</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.56810763234176</v>
+        <v>66.23722743295352</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.24356283492011</v>
+        <v>90.62869675396998</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.68487894332085</v>
+        <v>81.97922113396781</v>
       </c>
       <c r="AD2" t="n">
-        <v>42568.10763234177</v>
+        <v>66237.22743295351</v>
       </c>
       <c r="AE2" t="n">
-        <v>58243.56283492011</v>
+        <v>90628.69675396997</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394942762903031e-06</v>
+        <v>1.020056177039671e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>52684.87894332084</v>
+        <v>81979.22113396782</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.87707032942539</v>
+        <v>55.67674882277507</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.77103157819902</v>
+        <v>76.17938402409604</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.78025242408495</v>
+        <v>68.90893053129068</v>
       </c>
       <c r="AD2" t="n">
-        <v>45877.07032942539</v>
+        <v>55676.74882277507</v>
       </c>
       <c r="AE2" t="n">
-        <v>62771.03157819902</v>
+        <v>76179.38402409604</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.754747441072158e-06</v>
+        <v>1.319314262760087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>56780.25242408495</v>
+        <v>68908.93053129068</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.69526852699477</v>
+        <v>63.40050900574008</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.68106174699968</v>
+        <v>86.74737345467392</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.36693936283568</v>
+        <v>78.46832588288387</v>
       </c>
       <c r="AD2" t="n">
-        <v>40695.26852699477</v>
+        <v>63400.50900574007</v>
       </c>
       <c r="AE2" t="n">
-        <v>55681.06174699968</v>
+        <v>86747.37345467391</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.716594746970414e-06</v>
+        <v>1.120444670109887e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.83203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>50366.93936283568</v>
+        <v>78468.32588288387</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.61282155260916</v>
+        <v>64.81923523004977</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.93649827622179</v>
+        <v>88.68853726455711</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.5025587917288</v>
+        <v>80.22422774319298</v>
       </c>
       <c r="AD2" t="n">
-        <v>41612.82155260915</v>
+        <v>64819.23523004977</v>
       </c>
       <c r="AE2" t="n">
-        <v>56936.49827622179</v>
+        <v>88688.53726455712</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.560318821648208e-06</v>
+        <v>1.069084213104784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>51502.55879172879</v>
+        <v>80224.22774319298</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.56276869069441</v>
+        <v>67.66313871486156</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.60450197630642</v>
+        <v>92.57969147664157</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.91593196314377</v>
+        <v>83.74401565854654</v>
       </c>
       <c r="AD2" t="n">
-        <v>43562.76869069441</v>
+        <v>67663.13871486156</v>
       </c>
       <c r="AE2" t="n">
-        <v>59604.50197630642</v>
+        <v>92579.69147664157</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196063521947158e-06</v>
+        <v>9.679872238549313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.94921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>53915.93196314377</v>
+        <v>83744.01565854654</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.77190968531407</v>
+        <v>61.92753580896334</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.41768144410115</v>
+        <v>84.73198654385384</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.22413430287664</v>
+        <v>76.64528467021853</v>
       </c>
       <c r="AD2" t="n">
-        <v>39771.90968531407</v>
+        <v>61927.53580896334</v>
       </c>
       <c r="AE2" t="n">
-        <v>54417.68144410115</v>
+        <v>84731.98654385384</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.826529038475006e-06</v>
+        <v>1.167926204624618e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.845052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>49224.13430287664</v>
+        <v>76645.28467021853</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.08501863638737</v>
+        <v>59.2901757955624</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.10960269059007</v>
+        <v>81.1234342214084</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.13633534618489</v>
+        <v>73.38112751679115</v>
       </c>
       <c r="AD2" t="n">
-        <v>38085.01863638737</v>
+        <v>59290.1757955624</v>
       </c>
       <c r="AE2" t="n">
-        <v>52109.60269059007</v>
+        <v>81123.4342214084</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.045077649774638e-06</v>
+        <v>1.264668048989248e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.858072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>47136.3353461849</v>
+        <v>73381.12751679115</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.04839084970673</v>
+        <v>57.49382040092551</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.6912428200702</v>
+        <v>78.66558152086058</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.85334175102264</v>
+        <v>71.15784882836489</v>
       </c>
       <c r="AD2" t="n">
-        <v>37048.39084970673</v>
+        <v>57493.82040092551</v>
       </c>
       <c r="AE2" t="n">
-        <v>50691.2428200702</v>
+        <v>78665.58152086058</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.011604504903663e-06</v>
+        <v>1.30683611390821e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>45853.34175102264</v>
+        <v>71157.84882836489</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.2235085003994</v>
+        <v>64.24826318248029</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.87679945061313</v>
+        <v>87.90730811956399</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.97136455569291</v>
+        <v>79.51755801133575</v>
       </c>
       <c r="AD2" t="n">
-        <v>45223.5085003994</v>
+        <v>64248.26318248029</v>
       </c>
       <c r="AE2" t="n">
-        <v>61876.79945061314</v>
+        <v>87907.308119564</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.368180942291191e-06</v>
+        <v>1.276836311631026e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>55971.36455569291</v>
+        <v>79517.55801133576</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.96180146074848</v>
+        <v>63.92297320848697</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.0457438655629</v>
+        <v>87.46223202636574</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.69681673183887</v>
+        <v>79.11495935580398</v>
       </c>
       <c r="AD2" t="n">
-        <v>40961.80146074847</v>
+        <v>63922.97320848698</v>
       </c>
       <c r="AE2" t="n">
-        <v>56045.7438655629</v>
+        <v>87462.23202636575</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.704751194632352e-06</v>
+        <v>1.10705157761374e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>50696.81673183887</v>
+        <v>79114.95935580398</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.96227528919</v>
+        <v>66.85059584286699</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.78288041246931</v>
+        <v>91.46793447231762</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.17272480820591</v>
+        <v>82.73836318235416</v>
       </c>
       <c r="AD2" t="n">
-        <v>42962.27528919</v>
+        <v>66850.595842867</v>
       </c>
       <c r="AE2" t="n">
-        <v>58782.88041246931</v>
+        <v>91467.93447231762</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.331189436439493e-06</v>
+        <v>1.00034024311643e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.897135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>53172.72480820591</v>
+        <v>82738.36318235417</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.25029318661322</v>
+        <v>72.48542776705916</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.22764449191912</v>
+        <v>99.17776010223331</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.14346228078045</v>
+        <v>89.7123738749614</v>
       </c>
       <c r="AD2" t="n">
-        <v>54250.29318661322</v>
+        <v>72485.42776705917</v>
       </c>
       <c r="AE2" t="n">
-        <v>74227.64449191913</v>
+        <v>99177.76010223331</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.543412274608416e-06</v>
+        <v>1.136272930136596e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.368489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67143.46228078046</v>
+        <v>89712.3738749614</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.64863100221706</v>
+        <v>60.19118409633391</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.88076199433721</v>
+        <v>82.3562335282042</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.83389628831359</v>
+        <v>74.49627018799144</v>
       </c>
       <c r="AD2" t="n">
-        <v>38648.63100221706</v>
+        <v>60191.18409633391</v>
       </c>
       <c r="AE2" t="n">
-        <v>52880.76199433721</v>
+        <v>82356.2335282042</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.992656453744177e-06</v>
+        <v>1.234057830538645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>47833.89628831359</v>
+        <v>74496.27018799144</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.21791930049004</v>
+        <v>62.65519310346839</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.02793147613748</v>
+        <v>85.72759935616934</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.77614292834852</v>
+        <v>77.54587759307832</v>
       </c>
       <c r="AD2" t="n">
-        <v>40217.91930049004</v>
+        <v>62655.19310346839</v>
       </c>
       <c r="AE2" t="n">
-        <v>55027.93147613748</v>
+        <v>85727.59935616933</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.781793839288072e-06</v>
+        <v>1.145479809200136e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.83203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>49776.14292834852</v>
+        <v>77545.87759307832</v>
       </c>
     </row>
   </sheetData>
